--- a/docs/Getana_Deliverable_1_SprintBacklog_1.xlsx
+++ b/docs/Getana_Deliverable_1_SprintBacklog_1.xlsx
@@ -19,16 +19,46 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t xml:space="preserve">SPRINT BACKLOG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Each sprint on a separate sheet, one user story per row – created before sprint 1 and updated at a minimum of once a day during the sprint.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spring Goal and Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Story</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Story Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Story Points</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Story Points Completed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Team Member Names and Percentage Contribution to the Story</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="12">
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
+  <fonts count="17">
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -46,51 +76,100 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b val="true"/>
+      <sz val="24"/>
       <color rgb="FF000000"/>
-      <name val="FreeSans"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="FreeSans"/>
-      <family val="2"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF333333"/>
-      <name val="FreeSans"/>
-      <family val="2"/>
-    </font>
-    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
       <sz val="10"/>
       <color rgb="FF808080"/>
-      <name val="FreeSans"/>
-      <family val="2"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF006600"/>
-      <name val="FreeSans"/>
-      <family val="2"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF996600"/>
-      <name val="FreeSans"/>
-      <family val="2"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFCC0000"/>
-      <name val="FreeSans"/>
-      <family val="2"/>
-    </font>
-    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
-      <name val="FreeSans"/>
-      <family val="2"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <u val="single"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="9">
@@ -191,25 +270,65 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -306,7 +425,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -314,9 +433,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.78"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="25.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="59.05"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="11.52"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/docs/Getana_Deliverable_1_SprintBacklog_1.xlsx
+++ b/docs/Getana_Deliverable_1_SprintBacklog_1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="53">
   <si>
     <t xml:space="preserve">SPRINT BACKLOG</t>
   </si>
@@ -29,6 +29,15 @@
     <t xml:space="preserve">Each sprint on a separate sheet, one user story per row – created before sprint 1 and updated at a minimum of once a day during the sprint.</t>
   </si>
   <si>
+    <t xml:space="preserve">Progress tracked on ZenHub Kanban board.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Story Types: F (functional), NF (non-functional)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Story Subtypes: B (bug), T (technical work), KA (knowledge acquisition)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sprint Goal and Number</t>
   </si>
   <si>
@@ -53,13 +62,124 @@
     <t xml:space="preserve">This sprint is focused on documentation.</t>
   </si>
   <si>
-    <t xml:space="preserve">Progress tracked on ZenHub Kanban board.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Story Types: F (functional), NF (non-functional)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Story Subtypes: B (bug), T (technical work), KA (knowledge acquisition)</t>
+    <t xml:space="preserve">8, complete permission form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N/A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vasilis, 100%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7, complete sprint review document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20, create document for team member report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5, create platform document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23, create use cases for stories 1-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sakshyam, 100%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26, create use cases for stories 10-12 and 19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10-12, 19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yong, 100%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13, expand user stories 1-3 into requirements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10, create interview scripts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brody, 100%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16, expand user stories 10-12 and 19 into requirements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17, expand user stories 13-15 into requirements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27, create use cases for stories 13-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15, expand user stories 7-9 into requirements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michael, 100%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3, create document for product backlog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arpit, Brody, Michael, Sakshyam, Vasilis, Yong: 100%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19, create document for sprint backlog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25, create use cases for stories 7-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24, create use cases for stories 4-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14, expand user stories 4-6 into requirements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28, create use cases for stories 16 and 17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brody: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">18, expand user stories 16 and 17 into requirements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35, expand user stories 18 and 20 into requirements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18 and 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yong: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">36, create use cases for stories 18 and 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9, complete product mockup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michael, Sakshyam: </t>
   </si>
 </sst>
 </file>
@@ -107,12 +227,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF200"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -149,7 +275,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -162,6 +288,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -171,6 +301,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFF200"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -179,15 +369,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="50.26"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.91"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.52"/>
@@ -206,47 +396,543 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>8</v>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="F9" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>11</v>
+        <v>26</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>12</v>
+        <v>27</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -294,35 +980,35 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Getana_Deliverable_1_SprintBacklog_1.xlsx
+++ b/docs/Getana_Deliverable_1_SprintBacklog_1.xlsx
@@ -71,7 +71,7 @@
     <t xml:space="preserve">T</t>
   </si>
   <si>
-    <t xml:space="preserve">Vasilis, 100%</t>
+    <t xml:space="preserve">Vasilis: 100%</t>
   </si>
   <si>
     <t xml:space="preserve">7, complete sprint review document</t>
@@ -89,7 +89,7 @@
     <t xml:space="preserve">1-3</t>
   </si>
   <si>
-    <t xml:space="preserve">Sakshyam, 100%</t>
+    <t xml:space="preserve">Sakshyam: 100%</t>
   </si>
   <si>
     <t xml:space="preserve">26, create use cases for stories 10-12 and 19</t>
@@ -98,7 +98,7 @@
     <t xml:space="preserve">10-12, 19</t>
   </si>
   <si>
-    <t xml:space="preserve">Yong, 100%</t>
+    <t xml:space="preserve">Yong: 100%</t>
   </si>
   <si>
     <t xml:space="preserve">13, expand user stories 1-3 into requirements</t>
@@ -107,7 +107,7 @@
     <t xml:space="preserve">10, create interview scripts</t>
   </si>
   <si>
-    <t xml:space="preserve">Brody, 100%</t>
+    <t xml:space="preserve">Brody: 100%</t>
   </si>
   <si>
     <t xml:space="preserve">16, expand user stories 10-12 and 19 into requirements</t>
@@ -128,7 +128,7 @@
     <t xml:space="preserve">7-9</t>
   </si>
   <si>
-    <t xml:space="preserve">Michael, 100%</t>
+    <t xml:space="preserve">Michael: 100%</t>
   </si>
   <si>
     <t xml:space="preserve">3, create document for product backlog</t>
@@ -158,7 +158,7 @@
     <t xml:space="preserve">16-17</t>
   </si>
   <si>
-    <t xml:space="preserve">Brody: </t>
+    <t xml:space="preserve">Brody: 100%, Arpit: 0%</t>
   </si>
   <si>
     <t xml:space="preserve">18, expand user stories 16 and 17 into requirements</t>
@@ -170,7 +170,7 @@
     <t xml:space="preserve">18 and 20</t>
   </si>
   <si>
-    <t xml:space="preserve">Yong: </t>
+    <t xml:space="preserve">Yong: 100%, Arpit: 0%</t>
   </si>
   <si>
     <t xml:space="preserve">36, create use cases for stories 18 and 20</t>
@@ -275,7 +275,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -285,6 +285,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -371,8 +375,8 @@
   </sheetPr>
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -846,7 +850,9 @@
       <c r="E30" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="F30" s="3"/>
+      <c r="F30" s="3" t="n">
+        <v>2</v>
+      </c>
       <c r="G30" s="3" t="s">
         <v>45</v>
       </c>
@@ -867,7 +873,9 @@
       <c r="E31" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="F31" s="3"/>
+      <c r="F31" s="3" t="n">
+        <v>2</v>
+      </c>
       <c r="G31" s="3" t="s">
         <v>45</v>
       </c>
@@ -888,7 +896,9 @@
       <c r="E32" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="F32" s="3"/>
+      <c r="F32" s="3" t="n">
+        <v>2</v>
+      </c>
       <c r="G32" s="3" t="s">
         <v>49</v>
       </c>
@@ -909,29 +919,31 @@
       <c r="E33" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="F33" s="3"/>
+      <c r="F33" s="3" t="n">
+        <v>2</v>
+      </c>
       <c r="G33" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E34" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3" t="s">
+      <c r="B34" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4" t="s">
         <v>52</v>
       </c>
     </row>

--- a/docs/Getana_Deliverable_1_SprintBacklog_1.xlsx
+++ b/docs/Getana_Deliverable_1_SprintBacklog_1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="60">
   <si>
     <t xml:space="preserve">SPRINT BACKLOG</t>
   </si>
@@ -179,7 +179,28 @@
     <t xml:space="preserve">9, complete product mockup</t>
   </si>
   <si>
-    <t xml:space="preserve">Michael, Sakshyam: </t>
+    <t xml:space="preserve">Michael, Sakshyam: 100%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6, create SRS/use case document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vasilis: 90%, Yong: 5%, Arpit: 5%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4, create focus group document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brody, Michael, Sakshyam: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">21, update sprint review document before finalizing sprint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vasilis: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">22, update team member report before finalizing sprint</t>
   </si>
 </sst>
 </file>
@@ -227,18 +248,12 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF200"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -292,7 +307,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -305,66 +320,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFF200"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -373,10 +328,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -940,11 +895,93 @@
         <v>15</v>
       </c>
       <c r="E34" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="F34" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="F34" s="4" t="n">
+        <v>5</v>
+      </c>
       <c r="G34" s="4" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
